--- a/Descriptive Statistics/Categorical/CrossBorder_summary.xlsx
+++ b/Descriptive Statistics/Categorical/CrossBorder_summary.xlsx
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C2" t="n">
-        <v>59.51</v>
+        <v>60.19</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C3" t="n">
-        <v>40.49</v>
+        <v>39.81</v>
       </c>
     </row>
   </sheetData>

--- a/Descriptive Statistics/Categorical/CrossBorder_summary.xlsx
+++ b/Descriptive Statistics/Categorical/CrossBorder_summary.xlsx
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" t="n">
-        <v>60.19</v>
+        <v>63.32</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C3" t="n">
-        <v>39.81</v>
+        <v>36.68</v>
       </c>
     </row>
   </sheetData>
